--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -1,37 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e289b4740dc4e43/Рабочий стол/Projects/gms/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_68B3A0E0B455502DC0FA18353CB0DA14A49F51DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CEA1A7-F1FE-4F4A-A37F-0F8AA8F2E98F}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="35130" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Буровая_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Буровая_2" sheetId="2" r:id="rId2"/>
+    <sheet name="Буровая_3" sheetId="3" r:id="rId3"/>
+    <sheet name="Буровая_4" sheetId="4" r:id="rId4"/>
+    <sheet name="Буровая_5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+  <si>
+    <t>Скорость (м/с)</t>
+  </si>
+  <si>
+    <t>Время (с)</t>
+  </si>
+  <si>
+    <t>X-координата</t>
+  </si>
+  <si>
+    <t>Y-координата</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,100 +76,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -177,7 +157,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -211,6 +191,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -245,9 +226,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,152 +402,848 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Буровая установка</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Скорости (м/с)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Времена (с)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>X-координата</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Y-координата</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[2230.6100292005503, 1744.9160757870768, 1469.9071478441986, 1956.8815460117148, 2449.854168308243, 2056.6528274713046, 2232.967610885086, 2400.5116875193044, 1673.6663390821655, 2301.5893743550378]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[28.25895182661892, 96.11522095229672, 25.117748216860573, 60.3275720104144, 39.53977355089123, 48.69627574684217, 18.119927766942023, 27.21420236367699, 45.22400545106928, 95.78817755363218]</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>43.0191145193992</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97.82053259983944</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[2412.1679652261587, 1751.196698790477, 1442.1578380250692, 2468.45227322771, 1686.1990962741243, 2060.813820392245, 2422.5364651850196, 2453.2174300528914, 1593.0960199207964, 1727.8689173629953]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[37.75516819632756, 58.94558362746174, 65.49729452552657, 39.07169858633297, 12.320099679586146, 92.00265917900786, 33.5465941861387, 24.254005595305962, 33.38093611962173, 85.5297717806464]</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>36.93539852163342</v>
-      </c>
-      <c r="E3" t="n">
-        <v>78.14564330745708</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>[2134.156025559996, 2460.1303723595665, 2116.3738229671367, 1709.5603064729248, 1623.050773514808, 1455.987627840756, 1837.567693974167, 1569.9411460374172, 2189.8216595834656, 2249.6660297898848]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[52.91438953508634, 26.23616222957984, 32.02563637187808, 73.85908292046429, 15.070882126696539, 49.14293571064578, 96.05551087986836, 82.84062050036587, 90.51806319714623, 57.88570232365696]</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>89.27969159344178</v>
-      </c>
-      <c r="E4" t="n">
-        <v>21.91469728431681</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[1858.1590382674535, 1790.1963369783978, 1975.3563993131177, 1763.035816687801, 1400.377472240499, 2290.686187490608, 1573.9062701486187, 1587.7419560238402, 1721.7931305602262, 1834.9780237569869]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[76.68447303031921, 12.627401423125503, 56.02665962873756, 14.93587233561518, 51.68092410791371, 58.80857510758313, 42.30916062304168, 46.877017305766785, 15.087735103998705, 56.55571151252979]</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>25.13159376748504</v>
-      </c>
-      <c r="E5" t="n">
-        <v>44.99186874547838</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[1970.9518866312212, 2074.129009630661, 1489.431043591069, 1524.475842064114, 1588.6421844695483, 2267.265895483497, 2472.4341317995186, 1837.9847469533966, 1638.4413912260864, 1823.2081397481147]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[39.740123033702815, 65.87498104209664, 35.70830453269342, 37.523821663482465, 44.961167555189164, 60.063103102358255, 55.8197786163099, 59.02198745551378, 69.36510615404971, 70.98016689570187]</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>37.36293929546297</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.33303227473763</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1587.863857964169</v>
+      </c>
+      <c r="B2">
+        <v>76.615669279019528</v>
+      </c>
+      <c r="C2">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D2">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1833.590370679422</v>
+      </c>
+      <c r="B3">
+        <v>81.620311730747076</v>
+      </c>
+      <c r="C3">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D3">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2190.820045518105</v>
+      </c>
+      <c r="B4">
+        <v>26.267222080046661</v>
+      </c>
+      <c r="C4">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D4">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2483.1481178902891</v>
+      </c>
+      <c r="B5">
+        <v>19.963216185656329</v>
+      </c>
+      <c r="C5">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D5">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1967.788327003437</v>
+      </c>
+      <c r="B6">
+        <v>27.573015771537101</v>
+      </c>
+      <c r="C6">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D6">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1816.472940227623</v>
+      </c>
+      <c r="B7">
+        <v>53.715426596245543</v>
+      </c>
+      <c r="C7">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D7">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2157.4196687775461</v>
+      </c>
+      <c r="B8">
+        <v>71.771200385577743</v>
+      </c>
+      <c r="C8">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D8">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2102.0715079949609</v>
+      </c>
+      <c r="B9">
+        <v>62.269632756418687</v>
+      </c>
+      <c r="C9">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D9">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2176.3260700511828</v>
+      </c>
+      <c r="B10">
+        <v>37.545819142378761</v>
+      </c>
+      <c r="C10">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D10">
+        <v>14.44645891549755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1722.158436942666</v>
+      </c>
+      <c r="B11">
+        <v>95.993584998210494</v>
+      </c>
+      <c r="C11">
+        <v>58.826022664989402</v>
+      </c>
+      <c r="D11">
+        <v>14.44645891549755</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1847.17468592156</v>
+      </c>
+      <c r="B2">
+        <v>19.759382226248899</v>
+      </c>
+      <c r="C2">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D2">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2238.975795698816</v>
+      </c>
+      <c r="B3">
+        <v>21.26646272695179</v>
+      </c>
+      <c r="C3">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D3">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2318.7942392709269</v>
+      </c>
+      <c r="B4">
+        <v>56.052529522935252</v>
+      </c>
+      <c r="C4">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D4">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1768.7990629026269</v>
+      </c>
+      <c r="B5">
+        <v>19.870736186422501</v>
+      </c>
+      <c r="C5">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D5">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2064.5567993128898</v>
+      </c>
+      <c r="B6">
+        <v>50.944836950961083</v>
+      </c>
+      <c r="C6">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D6">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2313.6097206538161</v>
+      </c>
+      <c r="B7">
+        <v>78.882758851069198</v>
+      </c>
+      <c r="C7">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D7">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1751.2727479112109</v>
+      </c>
+      <c r="B8">
+        <v>30.337125316159671</v>
+      </c>
+      <c r="C8">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D8">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1807.6405501488191</v>
+      </c>
+      <c r="B9">
+        <v>81.170844672944085</v>
+      </c>
+      <c r="C9">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D9">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2212.1901891251041</v>
+      </c>
+      <c r="B10">
+        <v>87.07298114591876</v>
+      </c>
+      <c r="C10">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D10">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2250.5524386388888</v>
+      </c>
+      <c r="B11">
+        <v>90.412039474697863</v>
+      </c>
+      <c r="C11">
+        <v>85.932699619890258</v>
+      </c>
+      <c r="D11">
+        <v>60.105650490869102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2235.0608096292499</v>
+      </c>
+      <c r="B2">
+        <v>82.411697567335395</v>
+      </c>
+      <c r="C2">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D2">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2286.602631603766</v>
+      </c>
+      <c r="B3">
+        <v>20.79782512789242</v>
+      </c>
+      <c r="C3">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D3">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2202.6727893651828</v>
+      </c>
+      <c r="B4">
+        <v>86.264993336264993</v>
+      </c>
+      <c r="C4">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D4">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2248.7283098597009</v>
+      </c>
+      <c r="B5">
+        <v>34.171996731505779</v>
+      </c>
+      <c r="C5">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D5">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1752.6891583534</v>
+      </c>
+      <c r="B6">
+        <v>71.07304175513832</v>
+      </c>
+      <c r="C6">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D6">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1498.6014268790741</v>
+      </c>
+      <c r="B7">
+        <v>86.578053806977891</v>
+      </c>
+      <c r="C7">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D7">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2124.803992075575</v>
+      </c>
+      <c r="B8">
+        <v>75.685366131352012</v>
+      </c>
+      <c r="C8">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D8">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2178.5175070421551</v>
+      </c>
+      <c r="B9">
+        <v>33.226739982271368</v>
+      </c>
+      <c r="C9">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D9">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1823.9683559388509</v>
+      </c>
+      <c r="B10">
+        <v>19.000846144000789</v>
+      </c>
+      <c r="C10">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D10">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2364.2302080110112</v>
+      </c>
+      <c r="B11">
+        <v>71.169443214178543</v>
+      </c>
+      <c r="C11">
+        <v>71.368822829193874</v>
+      </c>
+      <c r="D11">
+        <v>31.584521570396451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1615.090712071486</v>
+      </c>
+      <c r="B2">
+        <v>88.435281466296729</v>
+      </c>
+      <c r="C2">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D2">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2214.2674513930169</v>
+      </c>
+      <c r="B3">
+        <v>35.257414478407853</v>
+      </c>
+      <c r="C3">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D3">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2004.607226363371</v>
+      </c>
+      <c r="B4">
+        <v>15.172224987569489</v>
+      </c>
+      <c r="C4">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D4">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2171.8363304893492</v>
+      </c>
+      <c r="B5">
+        <v>40.771781873996261</v>
+      </c>
+      <c r="C5">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D5">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1640.344923082243</v>
+      </c>
+      <c r="B6">
+        <v>12.35284429503006</v>
+      </c>
+      <c r="C6">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D6">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1636.724142601106</v>
+      </c>
+      <c r="B7">
+        <v>74.706237498465825</v>
+      </c>
+      <c r="C7">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D7">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1856.253325164804</v>
+      </c>
+      <c r="B8">
+        <v>28.784701218813201</v>
+      </c>
+      <c r="C8">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D8">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1553.1402163976511</v>
+      </c>
+      <c r="B9">
+        <v>78.896007672166618</v>
+      </c>
+      <c r="C9">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D9">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1720.933044176013</v>
+      </c>
+      <c r="B10">
+        <v>86.258949883650303</v>
+      </c>
+      <c r="C10">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D10">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1710.3342121577321</v>
+      </c>
+      <c r="B11">
+        <v>59.695998324051232</v>
+      </c>
+      <c r="C11">
+        <v>50.379380120319141</v>
+      </c>
+      <c r="D11">
+        <v>93.483118303104746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2406.9820904912749</v>
+      </c>
+      <c r="B2">
+        <v>13.00326328122966</v>
+      </c>
+      <c r="C2">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D2">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2282.1869654204852</v>
+      </c>
+      <c r="B3">
+        <v>10.224281599052301</v>
+      </c>
+      <c r="C3">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D3">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2358.0382788626698</v>
+      </c>
+      <c r="B4">
+        <v>60.297966215962639</v>
+      </c>
+      <c r="C4">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D4">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1627.4257721464289</v>
+      </c>
+      <c r="B5">
+        <v>36.675692448951509</v>
+      </c>
+      <c r="C5">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D5">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2187.890571340226</v>
+      </c>
+      <c r="B6">
+        <v>56.350133347726683</v>
+      </c>
+      <c r="C6">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D6">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2039.630807734178</v>
+      </c>
+      <c r="B7">
+        <v>80.432851376383041</v>
+      </c>
+      <c r="C7">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D7">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1542.1250835720459</v>
+      </c>
+      <c r="B8">
+        <v>35.576530037413256</v>
+      </c>
+      <c r="C8">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D8">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1752.442978836071</v>
+      </c>
+      <c r="B9">
+        <v>10.472383989418111</v>
+      </c>
+      <c r="C9">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D9">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2269.6105547015732</v>
+      </c>
+      <c r="B10">
+        <v>96.767197463992531</v>
+      </c>
+      <c r="C10">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D10">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2132.8376747360771</v>
+      </c>
+      <c r="B11">
+        <v>94.054680552195606</v>
+      </c>
+      <c r="C11">
+        <v>3.413342511529649</v>
+      </c>
+      <c r="D11">
+        <v>14.021317001653131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e289b4740dc4e43/Рабочий стол/Projects/gms/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_68B3A0E0B455502DC0FA18353CB0DA14A49F51DA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CEA1A7-F1FE-4F4A-A37F-0F8AA8F2E98F}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_67EB2B3875D7541E466A9F285C17CC253D1970EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD088C19-81E2-4788-BD93-AE914ED9A993}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="35130" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="2910" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Буровая_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>Скорость (м/с)</t>
   </si>
@@ -32,10 +32,13 @@
     <t>Время (с)</t>
   </si>
   <si>
-    <t>X-координата</t>
+    <t>X</t>
   </si>
   <si>
-    <t>Y-координата</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -403,19 +406,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,145 +431,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1587.863857964169</v>
+        <v>2199.3817012180962</v>
       </c>
       <c r="B2">
-        <v>76.615669279019528</v>
+        <v>68.248841560958397</v>
       </c>
       <c r="C2">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1833.590370679422</v>
+        <v>2436.4236518691432</v>
       </c>
       <c r="B3">
-        <v>81.620311730747076</v>
+        <v>63.3080397350205</v>
       </c>
       <c r="C3">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2190.820045518105</v>
+        <v>2274.916728594018</v>
       </c>
       <c r="B4">
-        <v>26.267222080046661</v>
+        <v>79.68734934958627</v>
       </c>
       <c r="C4">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2483.1481178902891</v>
+        <v>1100.1652046869101</v>
       </c>
       <c r="B5">
-        <v>19.963216185656329</v>
+        <v>35.726659386657083</v>
       </c>
       <c r="C5">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1967.788327003437</v>
+        <v>806.22348242085002</v>
       </c>
       <c r="B6">
-        <v>27.573015771537101</v>
+        <v>34.814262498137097</v>
       </c>
       <c r="C6">
-        <v>58.826022664989402</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1816.472940227623</v>
-      </c>
-      <c r="B7">
-        <v>53.715426596245543</v>
-      </c>
-      <c r="C7">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D7">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2157.4196687775461</v>
-      </c>
-      <c r="B8">
-        <v>71.771200385577743</v>
-      </c>
-      <c r="C8">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D8">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2102.0715079949609</v>
-      </c>
-      <c r="B9">
-        <v>62.269632756418687</v>
-      </c>
-      <c r="C9">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D9">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2176.3260700511828</v>
-      </c>
-      <c r="B10">
-        <v>37.545819142378761</v>
-      </c>
-      <c r="C10">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D10">
-        <v>14.44645891549755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1722.158436942666</v>
-      </c>
-      <c r="B11">
-        <v>95.993584998210494</v>
-      </c>
-      <c r="C11">
-        <v>58.826022664989402</v>
-      </c>
-      <c r="D11">
-        <v>14.44645891549755</v>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -576,19 +527,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,145 +552,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1847.17468592156</v>
+        <v>2378.0457230346542</v>
       </c>
       <c r="B2">
-        <v>19.759382226248899</v>
+        <v>96.70529228798172</v>
       </c>
       <c r="C2">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2238.975795698816</v>
+        <v>2111.8203809691649</v>
       </c>
       <c r="B3">
-        <v>21.26646272695179</v>
+        <v>63.583949254967017</v>
       </c>
       <c r="C3">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2318.7942392709269</v>
+        <v>2252.9933903071701</v>
       </c>
       <c r="B4">
-        <v>56.052529522935252</v>
+        <v>75.535546247701902</v>
       </c>
       <c r="C4">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1768.7990629026269</v>
+        <v>927.37156327405</v>
       </c>
       <c r="B5">
-        <v>19.870736186422501</v>
+        <v>31.649250595849939</v>
       </c>
       <c r="C5">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2064.5567993128898</v>
+        <v>822.54084312349005</v>
       </c>
       <c r="B6">
-        <v>50.944836950961083</v>
+        <v>31.717543020050101</v>
       </c>
       <c r="C6">
-        <v>85.932699619890258</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2313.6097206538161</v>
-      </c>
-      <c r="B7">
-        <v>78.882758851069198</v>
-      </c>
-      <c r="C7">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D7">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1751.2727479112109</v>
-      </c>
-      <c r="B8">
-        <v>30.337125316159671</v>
-      </c>
-      <c r="C8">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D8">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1807.6405501488191</v>
-      </c>
-      <c r="B9">
-        <v>81.170844672944085</v>
-      </c>
-      <c r="C9">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D9">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2212.1901891251041</v>
-      </c>
-      <c r="B10">
-        <v>87.07298114591876</v>
-      </c>
-      <c r="C10">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D10">
-        <v>60.105650490869102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2250.5524386388888</v>
-      </c>
-      <c r="B11">
-        <v>90.412039474697863</v>
-      </c>
-      <c r="C11">
-        <v>85.932699619890258</v>
-      </c>
-      <c r="D11">
-        <v>60.105650490869102</v>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -749,13 +648,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,145 +673,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2235.0608096292499</v>
+        <v>1189.3122205446</v>
       </c>
       <c r="B2">
-        <v>82.411697567335395</v>
+        <v>43.120921526534502</v>
       </c>
       <c r="C2">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2286.602631603766</v>
+        <v>1458.4597272159999</v>
       </c>
       <c r="B3">
-        <v>20.79782512789242</v>
+        <v>43.141660201147403</v>
       </c>
       <c r="C3">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2202.6727893651828</v>
+        <v>1421.2603045677149</v>
       </c>
       <c r="B4">
-        <v>86.264993336264993</v>
+        <v>36.164400991200303</v>
       </c>
       <c r="C4">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2248.7283098597009</v>
+        <v>1288.2442024905799</v>
       </c>
       <c r="B5">
-        <v>34.171996731505779</v>
+        <v>44.392171184152197</v>
       </c>
       <c r="C5">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1752.6891583534</v>
+        <v>883.58694564595999</v>
       </c>
       <c r="B6">
-        <v>71.07304175513832</v>
+        <v>46.705845691784333</v>
       </c>
       <c r="C6">
-        <v>71.368822829193874</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1498.6014268790741</v>
-      </c>
-      <c r="B7">
-        <v>86.578053806977891</v>
-      </c>
-      <c r="C7">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D7">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2124.803992075575</v>
-      </c>
-      <c r="B8">
-        <v>75.685366131352012</v>
-      </c>
-      <c r="C8">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D8">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2178.5175070421551</v>
-      </c>
-      <c r="B9">
-        <v>33.226739982271368</v>
-      </c>
-      <c r="C9">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D9">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1823.9683559388509</v>
-      </c>
-      <c r="B10">
-        <v>19.000846144000789</v>
-      </c>
-      <c r="C10">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D10">
-        <v>31.584521570396451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2364.2302080110112</v>
-      </c>
-      <c r="B11">
-        <v>71.169443214178543</v>
-      </c>
-      <c r="C11">
-        <v>71.368822829193874</v>
-      </c>
-      <c r="D11">
-        <v>31.584521570396451</v>
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -916,13 +769,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,145 +794,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1615.090712071486</v>
+        <v>819.91457937073005</v>
       </c>
       <c r="B2">
-        <v>88.435281466296729</v>
+        <v>46.919175903662499</v>
       </c>
       <c r="C2">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2214.2674513930169</v>
+        <v>1255.4730448749599</v>
       </c>
       <c r="B3">
-        <v>35.257414478407853</v>
+        <v>45.762254486116099</v>
       </c>
       <c r="C3">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2004.607226363371</v>
+        <v>817.13829976501995</v>
       </c>
       <c r="B4">
-        <v>15.172224987569489</v>
+        <v>42.196049241631997</v>
       </c>
       <c r="C4">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2171.8363304893492</v>
+        <v>1396.3008545263999</v>
       </c>
       <c r="B5">
-        <v>40.771781873996261</v>
+        <v>46.2948614815597</v>
       </c>
       <c r="C5">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1640.344923082243</v>
+        <v>1166.9716115813301</v>
       </c>
       <c r="B6">
-        <v>12.35284429503006</v>
+        <v>44.755480306023898</v>
       </c>
       <c r="C6">
-        <v>50.379380120319141</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1636.724142601106</v>
-      </c>
-      <c r="B7">
-        <v>74.706237498465825</v>
-      </c>
-      <c r="C7">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D7">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1856.253325164804</v>
-      </c>
-      <c r="B8">
-        <v>28.784701218813201</v>
-      </c>
-      <c r="C8">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D8">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1553.1402163976511</v>
-      </c>
-      <c r="B9">
-        <v>78.896007672166618</v>
-      </c>
-      <c r="C9">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D9">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1720.933044176013</v>
-      </c>
-      <c r="B10">
-        <v>86.258949883650303</v>
-      </c>
-      <c r="C10">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D10">
-        <v>93.483118303104746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1710.3342121577321</v>
-      </c>
-      <c r="B11">
-        <v>59.695998324051232</v>
-      </c>
-      <c r="C11">
-        <v>50.379380120319141</v>
-      </c>
-      <c r="D11">
-        <v>93.483118303104746</v>
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1083,13 +890,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,145 +911,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2406.9820904912749</v>
+        <v>1124.6038875783699</v>
       </c>
       <c r="B2">
-        <v>13.00326328122966</v>
+        <v>39.249187146502003</v>
       </c>
       <c r="C2">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2282.1869654204852</v>
+        <v>1136.42747678721</v>
       </c>
       <c r="B3">
-        <v>10.224281599052301</v>
+        <v>36.074030266754697</v>
       </c>
       <c r="C3">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2358.0382788626698</v>
+        <v>1349.51095739878</v>
       </c>
       <c r="B4">
-        <v>60.297966215962639</v>
+        <v>41.787824385086303</v>
       </c>
       <c r="C4">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1627.4257721464289</v>
+        <v>1136.1056626460199</v>
       </c>
       <c r="B5">
-        <v>36.675692448951509</v>
+        <v>41.4908641575378</v>
       </c>
       <c r="C5">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2187.890571340226</v>
+        <v>1380.21041122055</v>
       </c>
       <c r="B6">
-        <v>56.350133347726683</v>
+        <v>37.855309411728499</v>
       </c>
       <c r="C6">
-        <v>3.413342511529649</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2039.630807734178</v>
-      </c>
-      <c r="B7">
-        <v>80.432851376383041</v>
-      </c>
-      <c r="C7">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D7">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1542.1250835720459</v>
-      </c>
-      <c r="B8">
-        <v>35.576530037413256</v>
-      </c>
-      <c r="C8">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D8">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1752.442978836071</v>
-      </c>
-      <c r="B9">
-        <v>10.472383989418111</v>
-      </c>
-      <c r="C9">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D9">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2269.6105547015732</v>
-      </c>
-      <c r="B10">
-        <v>96.767197463992531</v>
-      </c>
-      <c r="C10">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D10">
-        <v>14.021317001653131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2132.8376747360771</v>
-      </c>
-      <c r="B11">
-        <v>94.054680552195606</v>
-      </c>
-      <c r="C11">
-        <v>3.413342511529649</v>
-      </c>
-      <c r="D11">
-        <v>14.021317001653131</v>
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
